--- a/data/management/Management_information_KIE_2016.xlsx
+++ b/data/management/Management_information_KIE_2016.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD356C88-F85F-4B4A-9554-038094E3AB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="450" windowWidth="19440" windowHeight="11700"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="33140" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
   <si>
     <t xml:space="preserve">Correspondence </t>
   </si>
@@ -48,9 +54,6 @@
     <t>3rd nitrogen application</t>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
     <t>Plant protection</t>
   </si>
   <si>
@@ -252,9 +255,6 @@
     <t>6.125 m2</t>
   </si>
   <si>
-    <t>KAS</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -327,9 +327,6 @@
     <t>Grubber, Kreiselegge</t>
   </si>
   <si>
-    <t>5 kg Bittersalz, 0.7 l Mangan, 0.3 l Kupfer</t>
-  </si>
-  <si>
     <t>18 g Tribenuron, 0.3 l Fluroxypyr</t>
   </si>
   <si>
@@ -357,19 +354,19 @@
     <t>Osiris</t>
   </si>
   <si>
-    <t>Bittersalz</t>
-  </si>
-  <si>
     <t>Amount kg/ha</t>
   </si>
   <si>
     <t>Amount /ha</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,10 +569,10 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20 % - Akzent3" xfId="3" builtinId="38"/>
-    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
-    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,14 +580,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -628,7 +628,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -700,7 +700,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -873,257 +873,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="15">
         <v>0.15</v>
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -1132,16 +1132,16 @@
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="15">
         <v>0.25</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1152,100 +1152,100 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" s="16">
         <v>41518</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C37" s="16">
         <v>41518</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" s="16">
         <v>42436</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="16">
         <v>42436</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="16">
         <v>42436</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="16">
         <v>42436</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1258,9 +1258,9 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>4</v>
@@ -1269,33 +1269,33 @@
         <v>5</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>6</v>
       </c>
       <c r="J46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K46" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>7</v>
@@ -1307,28 +1307,28 @@
         <v>40</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" s="12">
         <v>42289</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>8</v>
@@ -1340,193 +1340,171 @@
         <v>40</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" s="12">
         <v>42494</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="C49" s="14"/>
       <c r="D49" s="6"/>
       <c r="E49" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="11">
-        <v>42453</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>80</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="6"/>
-      <c r="C51" s="11">
-        <v>42494</v>
-      </c>
-      <c r="D51" s="13">
-        <v>3</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="6"/>
-      <c r="C52" s="11">
-        <v>42536</v>
-      </c>
-      <c r="D52" s="13">
-        <v>3</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
       <c r="F52" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="57" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>4</v>
@@ -1535,33 +1513,33 @@
         <v>5</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>6</v>
       </c>
       <c r="J57" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K57" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K57" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>7</v>
@@ -1573,28 +1551,28 @@
         <v>50</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" s="12">
         <v>42289</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>8</v>
@@ -1606,26 +1584,26 @@
         <v>80</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59" s="12">
         <v>42494</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>9</v>
@@ -1637,166 +1615,148 @@
         <v>60</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="11">
-        <v>42453</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>103</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="6"/>
-      <c r="C62" s="11">
-        <v>42494</v>
-      </c>
-      <c r="D62" s="13">
-        <v>3</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="6"/>
-      <c r="C63" s="11">
-        <v>42536</v>
-      </c>
-      <c r="D63" s="13">
-        <v>3</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K63" s="8"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>64</v>
-      </c>
-      <c r="K63" s="8"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>65</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G65" s="12">
         <v>42494</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G66" s="12">
         <v>42509</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="68" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>4</v>
@@ -1805,33 +1765,33 @@
         <v>5</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>6</v>
       </c>
       <c r="J68" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K68" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K68" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>7</v>
@@ -1843,28 +1803,28 @@
         <v>50</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69" s="12">
         <v>42289</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>8</v>
@@ -1876,26 +1836,26 @@
         <v>80</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G70" s="12">
         <v>42494</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>9</v>
@@ -1907,166 +1867,148 @@
         <v>60</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="11">
-        <v>42453</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>103</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="13"/>
       <c r="E72" s="6"/>
       <c r="F72" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="6"/>
-      <c r="C73" s="11">
-        <v>42494</v>
-      </c>
-      <c r="D73" s="13">
-        <v>3</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G73" s="12">
         <v>42494</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="6"/>
-      <c r="C74" s="11">
-        <v>42536</v>
-      </c>
-      <c r="D74" s="13">
-        <v>3</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
       <c r="F74" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G74" s="12">
         <v>42509</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G75" s="12">
         <v>42536</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G76" s="12">
         <v>42494</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" s="12">
         <v>42509</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="8"/>
@@ -2078,24 +2020,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/management/Management_information_KIE_2016.xlsx
+++ b/data/management/Management_information_KIE_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD356C88-F85F-4B4A-9554-038094E3AB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A847E1-F177-2F43-8949-CC504FF70301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="33140" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,9 +276,6 @@
     <t>oilseed rape</t>
   </si>
   <si>
-    <t>winterbarley</t>
-  </si>
-  <si>
     <t>8.6 (kg/ha)</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>CAN</t>
+  </si>
+  <si>
+    <t>winter barley</t>
   </si>
 </sst>
 </file>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -943,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1027,7 +1027,7 @@
         <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1049,7 +1049,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -1058,7 +1058,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1"/>
     </row>
@@ -1067,7 +1067,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -1076,7 +1076,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="1"/>
     </row>
@@ -1094,7 +1094,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1"/>
     </row>
@@ -1157,7 +1157,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="1"/>
     </row>
@@ -1166,7 +1166,7 @@
         <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="16">
         <v>41518</v>
@@ -1177,7 +1177,7 @@
         <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="16">
         <v>41518</v>
@@ -1195,7 +1195,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="16">
         <v>42436</v>
@@ -1206,7 +1206,7 @@
         <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="16">
         <v>42436</v>
@@ -1217,7 +1217,7 @@
         <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="16">
         <v>42436</v>
@@ -1228,7 +1228,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="16">
         <v>42436</v>
@@ -1239,7 +1239,7 @@
         <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="1"/>
     </row>
@@ -1269,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>6</v>
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>6</v>
@@ -1307,7 +1307,7 @@
         <v>40</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
@@ -1316,10 +1316,10 @@
         <v>42289</v>
       </c>
       <c r="H47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>58</v>
@@ -1340,7 +1340,7 @@
         <v>40</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>12</v>
@@ -1349,7 +1349,7 @@
         <v>42494</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="8" t="s">
@@ -1513,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>6</v>
@@ -1525,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>6</v>
@@ -1551,7 +1551,7 @@
         <v>50</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>11</v>
@@ -1560,10 +1560,10 @@
         <v>42289</v>
       </c>
       <c r="H58" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>58</v>
@@ -1584,7 +1584,7 @@
         <v>80</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>12</v>
@@ -1593,7 +1593,7 @@
         <v>42494</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="8" t="s">
@@ -1615,7 +1615,7 @@
         <v>60</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>13</v>
@@ -1727,7 +1727,7 @@
         <v>42494</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="8"/>
@@ -1748,7 +1748,7 @@
         <v>42509</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="8"/>
@@ -1765,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>6</v>
@@ -1777,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>6</v>
@@ -1803,7 +1803,7 @@
         <v>50</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>11</v>
@@ -1812,10 +1812,10 @@
         <v>42289</v>
       </c>
       <c r="H69" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I69" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>58</v>
@@ -1836,7 +1836,7 @@
         <v>80</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>12</v>
@@ -1845,7 +1845,7 @@
         <v>42494</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="8" t="s">
@@ -1867,7 +1867,7 @@
         <v>60</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>13</v>
@@ -1918,7 +1918,7 @@
         <v>42494</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="8" t="s">
@@ -1941,7 +1941,7 @@
         <v>42509</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="8" t="s">
@@ -1964,10 +1964,10 @@
         <v>42536</v>
       </c>
       <c r="H75" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I75" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -1987,7 +1987,7 @@
         <v>42494</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="8"/>
@@ -2008,7 +2008,7 @@
         <v>42509</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="8"/>
